--- a/ejemploTablaUnidadControl.xlsx
+++ b/ejemploTablaUnidadControl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive\Documentos\TrabajosLocal\LogisimMIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B84AE-6B50-45D0-AF45-6C9A588EC7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C24FF3-D477-4213-A6BE-595AC4E4B25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Tabla de verdad para la unidad de control</t>
   </si>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>"01"</t>
+  </si>
+  <si>
+    <t>"00"</t>
+  </si>
+  <si>
+    <t>"11"</t>
+  </si>
+  <si>
+    <t>11 = resta</t>
+  </si>
+  <si>
+    <t>00 = and</t>
+  </si>
+  <si>
+    <t>01 = or</t>
   </si>
 </sst>
 </file>
@@ -448,6 +466,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,14 +488,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -752,20 +770,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:U41"/>
+  <dimension ref="B3:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -773,31 +791,31 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="23"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -851,7 +869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
@@ -901,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
@@ -929,41 +947,41 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
-        <v>1</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27">
-        <v>0</v>
-      </c>
-      <c r="N7" s="27">
-        <v>1</v>
-      </c>
-      <c r="O7" s="27">
-        <v>1</v>
-      </c>
-      <c r="P7" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>0</v>
-      </c>
-      <c r="R7" s="27">
-        <v>0</v>
-      </c>
-      <c r="S7" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21">
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1075,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1130,9 +1148,8 @@
       <c r="S10" s="5">
         <v>1</v>
       </c>
-      <c r="U10" s="24"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1244,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1295,7 @@
       <c r="L13" s="5">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="27">
         <v>0</v>
       </c>
       <c r="N13" s="5">
@@ -1300,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1356,11 +1373,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="O16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1385,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
         <v>29</v>
@@ -1398,7 +1415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1433,7 +1450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
@@ -1443,15 +1460,32 @@
       <c r="D20" s="5">
         <v>0</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
@@ -1461,15 +1495,32 @@
       <c r="D21" s="5">
         <v>0</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1479,15 +1530,32 @@
       <c r="D22" s="5">
         <v>0</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1561,17 +1629,29 @@
       <c r="D25" s="11">
         <v>1</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="K25" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1581,31 +1661,61 @@
       <c r="D26" s="11">
         <v>1</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="K26" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
@@ -1615,17 +1725,29 @@
       <c r="D28" s="11">
         <v>0</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="K28" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
@@ -1636,7 +1758,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="41" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S41" s="9"/>
     </row>
   </sheetData>

--- a/ejemploTablaUnidadControl.xlsx
+++ b/ejemploTablaUnidadControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive\Documentos\TrabajosLocal\LogisimMIPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C24FF3-D477-4213-A6BE-595AC4E4B25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E83706B-5B72-4344-A3C3-CC87C0A699FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,12 +284,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -466,13 +460,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,7 +475,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -772,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,27 +786,27 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -947,37 +940,37 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>1</v>
-      </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0</v>
-      </c>
-      <c r="N7" s="21">
-        <v>1</v>
-      </c>
-      <c r="O7" s="21">
-        <v>1</v>
-      </c>
-      <c r="P7" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>0</v>
-      </c>
-      <c r="R7" s="21">
-        <v>0</v>
-      </c>
-      <c r="S7" s="21">
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>1</v>
+      </c>
+      <c r="O7" s="26">
+        <v>1</v>
+      </c>
+      <c r="P7" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0</v>
+      </c>
+      <c r="S7" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1295,7 +1288,7 @@
       <c r="L13" s="5">
         <v>0</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="5">
         <v>0</v>
       </c>
       <c r="N13" s="5">
